--- a/src/test/java/Properties File/testdata.xlsx
+++ b/src/test/java/Properties File/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmishra/Downloads/Cucumber-master/Russel Metals/src/Properties file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE7A32-223F-2A4E-96BD-08D1A397776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06067C-7518-6F4B-8AB9-70522CDE8F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="20160" xr2:uid="{BAA86236-83EF-2E43-B282-FAA34C726680}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>salahcrompton@gmail.com</t>
   </si>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75030144-152A-8148-A151-F8B69900D488}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +719,19 @@
         <v>93</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D0F4CAD9-35B0-C444-8D1E-02BBF8D16163}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{3ED9E7CB-0F2C-6B41-9168-60FD8E75A8C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
